--- a/biology/Botanique/Sartène_(AOC)/Sartène_(AOC).xlsx
+++ b/biology/Botanique/Sartène_(AOC)/Sartène_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sart%C3%A8ne_(AOC)</t>
+          <t>Sartène_(AOC)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sartène[3] ou vin de Corse Sartène est un vin produit autour du golfe de Sartène. 
+Le sartène ou vin de Corse Sartène est un vin produit autour du golfe de Sartène. 
 Il s'agit d'une des dénominations géographiques au sein de l'appellation vin de corse.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sart%C3%A8ne_(AOC)</t>
+          <t>Sartène_(AOC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Moyen Âge
-Période moderne
-Période contemporaine
-Reconnu VDQS le 13 mars 1968, puis AOC le 2 avril 1976.
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reconnu VDQS le 13 mars 1968, puis AOC le 2 avril 1976.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sart%C3%A8ne_(AOC)</t>
+          <t>Sartène_(AOC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En tant que ville au Sud de la Corse, et donc assez proche à la Sardaigne, Sartène effectivement en porte la même étymologie. En latin la Sardaigne était appelée Sardinia (comme l'on appelle en plusieurs pays encore aujourd'hui).
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sart%C3%A8ne_(AOC)</t>
+          <t>Sartène_(AOC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,14 +595,11 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est séparée de l'AOC Ajaccio par la rivière Taravo (hormis un petit dépassement en amont) et s'achève aux environs du Lion de Roccapina.
-Orographie
-Les vignes sont implantées sur les coteaux de l'Ortolo ou de Rizzanese. 
-Géologie
-Climatologie
-Près de 2 750 heures d'ensoleillement par an. 
 </t>
         </is>
       </c>
@@ -597,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sart%C3%A8ne_(AOC)</t>
+          <t>Sartène_(AOC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,28 +625,174 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignes sont implantées sur les coteaux de l'Ortolo ou de Rizzanese. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sartène_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sart%C3%A8ne_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Près de 2 750 heures d'ensoleillement par an. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sartène_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sart%C3%A8ne_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présentation
-Selon le décret du 2 avril 1976 relatif à l'Appellation d'Origine Contrôlée « Vin de corse », seuls ont droit à l'appellation contrôlée « Vins de Corse Sartène », les vins tranquilles rouges, rosés et blancs, qui ont été récoltés sur les territoires suivants : communes d'Arbellara, Belvédère-Campomoro, Bilia, Fozzano, Granace, Grossa, Giuncheto, Loreto-di-Tallano, Mela, Olmeto, Olmiccia, Santa-Lucia-di-Tallano, Sartène, Viggianello et Propriano pour le canton "Sartenais-Valinco" et Sollacaro au sein du canton "Taravo-Ornano" (découpage 2015).
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le décret du 2 avril 1976 relatif à l'Appellation d'Origine Contrôlée « Vin de corse », seuls ont droit à l'appellation contrôlée « Vins de Corse Sartène », les vins tranquilles rouges, rosés et blancs, qui ont été récoltés sur les territoires suivants : communes d'Arbellara, Belvédère-Campomoro, Bilia, Fozzano, Granace, Grossa, Giuncheto, Loreto-di-Tallano, Mela, Olmeto, Olmiccia, Santa-Lucia-di-Tallano, Sartène, Viggianello et Propriano pour le canton "Sartenais-Valinco" et Sollacaro au sein du canton "Taravo-Ornano" (découpage 2015).
 Les communes de Tivolaggio et de Sant'Andrea-di-Tallano, initialement comprises dans l'aire d'appellation, n'existent plus en tant que telles. ayant fusionné, la première avec Propriano, la seconde avec Santa-Lucia-di-Tallano.
 Dans les textes, la rubrique « aire de proximité immédiate » fait l'objet de la mention : « pas de disposition particulière », ce qui implique l'obligation de vinification et d'élevage au sein même de l'aire d'appellation.
-Encépagement
-Les vins blancs sont issus principalement de la vermentino B (malvoisie de Corse), complété accessoirement par le biancu gentile B, la codivarta B, le genovese B et l'ugni blanc B (rossola).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sartène_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sart%C3%A8ne_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins blancs sont issus principalement de la vermentino B (malvoisie de Corse), complété accessoirement par le biancu gentile B, la codivarta B, le genovese B et l'ugni blanc B (rossola).
 Les vins rouges et rosés sont issus principalement du grenache N, du nielluccio N et du sciaccarello N, complétés accessoirement par du aléatico N, de la barbarossa N, du carcajolo nero N, du carignan N, du cinsaut N, du mourvèdre N, de la syrah N et du vermentino B (malvoisie de Corse).
-Méthodes culturales et réglementations
-Les vins doivent répondre aux conditions suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sartène_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sart%C3%A8ne_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Méthodes culturales et réglementations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les vins doivent répondre aux conditions suivantes :
 Ils doivent, d'une part, provenir de moûts ayant respectivement des richesses en sucre non inférieures à 207 grammes par litre pour les vins rouges et à 195 grammes par litre pour les rosés et les blancs et, d'autre part, présenter après fermentation des titres alcoométriques acquis non inférieurs à 11°5 (rouges) et à 11° (blancs et rosés).
 Le rendement de base est fixé à 50 hl par hectare de vigne en production pour les vins.
 La densité de plantation à l'hectare ne doit pas être inférieure à 3 000 pieds.
 Les vins doivent être vinifiés conformément aux usages locaux. L'emploi des pressoirs continus est interdit.
-Ces vins ne peuvent être mis en circulation avec l'une de ces appellations d'origine sans un certificat délivré par l'Institut National des Appellations d'Origine.
-Structure des exploitations
-Terroir et vins
-Commercialisation</t>
+Ces vins ne peuvent être mis en circulation avec l'une de ces appellations d'origine sans un certificat délivré par l'Institut National des Appellations d'Origine.</t>
         </is>
       </c>
     </row>
